--- a/predictions/прогнозы_STL.xlsx
+++ b/predictions/прогнозы_STL.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16787859.81044246</v>
+        <v>20944236.79585782</v>
       </c>
       <c r="C2" t="n">
-        <v>21779709.53980854</v>
+        <v>21050663.12776022</v>
       </c>
       <c r="D2" t="n">
-        <v>21888852.39002068</v>
+        <v>18712428.54745865</v>
       </c>
       <c r="E2" t="n">
-        <v>19501930.868586</v>
+        <v>15335217.66579811</v>
       </c>
       <c r="F2" t="n">
-        <v>16065776.00051618</v>
+        <v>18177116.80718816</v>
       </c>
       <c r="G2" t="n">
-        <v>18847787.05203497</v>
+        <v>18835981.64234101</v>
       </c>
       <c r="H2" t="n">
-        <v>19446931.67448053</v>
+        <v>21160822.07316261</v>
       </c>
       <c r="I2" t="n">
-        <v>21711705.93415654</v>
+        <v>19239926.03187124</v>
       </c>
       <c r="J2" t="n">
-        <v>19730040.95487038</v>
+        <v>20012929.64337551</v>
       </c>
       <c r="K2" t="n">
-        <v>20441583.50298551</v>
+        <v>19172137.87404642</v>
       </c>
       <c r="L2" t="n">
-        <v>19539799.31499974</v>
+        <v>18979843.57677088</v>
       </c>
       <c r="M2" t="n">
-        <v>19292577.61024889</v>
+        <v>14209245.3875098</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12761431.21590396</v>
+        <v>12758577.91133737</v>
       </c>
       <c r="C3" t="n">
-        <v>12642272.5190064</v>
+        <v>19082259.04963841</v>
       </c>
       <c r="D3" t="n">
-        <v>18964569.50425322</v>
+        <v>13379783.05886612</v>
       </c>
       <c r="E3" t="n">
-        <v>13243811.49734448</v>
+        <v>15797024.16620991</v>
       </c>
       <c r="F3" t="n">
-        <v>15626455.13570572</v>
+        <v>13189464.17484058</v>
       </c>
       <c r="G3" t="n">
-        <v>12982271.43154033</v>
+        <v>11543357.29670931</v>
       </c>
       <c r="H3" t="n">
-        <v>11298778.0445087</v>
+        <v>13166872.33689365</v>
       </c>
       <c r="I3" t="n">
-        <v>12883408.54361863</v>
+        <v>15441697.722404</v>
       </c>
       <c r="J3" t="n">
-        <v>15116537.7505348</v>
+        <v>14517412.53296143</v>
       </c>
       <c r="K3" t="n">
-        <v>14146707.36644808</v>
+        <v>16904814.88877743</v>
       </c>
       <c r="L3" t="n">
-        <v>16483777.08882381</v>
+        <v>14938894.33149881</v>
       </c>
       <c r="M3" t="n">
-        <v>14466689.10261659</v>
+        <v>9832040.652225502</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16554045.13089282</v>
+        <v>34933087.4553732</v>
       </c>
       <c r="C4" t="n">
-        <v>16144263.23912661</v>
+        <v>32921073.30952543</v>
       </c>
       <c r="D4" t="n">
-        <v>14519318.01619585</v>
+        <v>31685907.39943428</v>
       </c>
       <c r="E4" t="n">
-        <v>14193536.77518548</v>
+        <v>30581880.84865466</v>
       </c>
       <c r="F4" t="n">
-        <v>13638149.94952894</v>
+        <v>31473919.05632837</v>
       </c>
       <c r="G4" t="n">
-        <v>14409381.5425451</v>
+        <v>32520087.04816485</v>
       </c>
       <c r="H4" t="n">
-        <v>15567255.97090754</v>
+        <v>36741527.14445809</v>
       </c>
       <c r="I4" t="n">
-        <v>18421568.55283049</v>
+        <v>37641459.20951784</v>
       </c>
       <c r="J4" t="n">
-        <v>15895966.99043002</v>
+        <v>42945301.81275024</v>
       </c>
       <c r="K4" t="n">
-        <v>22789830.19272784</v>
+        <v>38037382.72646622</v>
       </c>
       <c r="L4" t="n">
-        <v>19000203.81546026</v>
+        <v>45449248.25246925</v>
       </c>
       <c r="M4" t="n">
-        <v>22978266.58573895</v>
+        <v>51603391.92824323</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11404059.8679676</v>
+        <v>27759314.25057217</v>
       </c>
       <c r="C5" t="n">
-        <v>11031451.14382152</v>
+        <v>24625436.15898841</v>
       </c>
       <c r="D5" t="n">
-        <v>10399731.50035016</v>
+        <v>28048191.6830728</v>
       </c>
       <c r="E5" t="n">
-        <v>9800465.805089232</v>
+        <v>30428742.63424542</v>
       </c>
       <c r="F5" t="n">
-        <v>9619759.441469487</v>
+        <v>29761636.23842043</v>
       </c>
       <c r="G5" t="n">
-        <v>10096437.64393453</v>
+        <v>26993041.13599088</v>
       </c>
       <c r="H5" t="n">
-        <v>10330863.79990583</v>
+        <v>27102463.68452296</v>
       </c>
       <c r="I5" t="n">
-        <v>12045440.41131449</v>
+        <v>26008147.03113603</v>
       </c>
       <c r="J5" t="n">
-        <v>15829977.34062349</v>
+        <v>27436671.98508811</v>
       </c>
       <c r="K5" t="n">
-        <v>14616737.75752206</v>
+        <v>30601065.97751769</v>
       </c>
       <c r="L5" t="n">
-        <v>13897839.62530791</v>
+        <v>53684641.87895435</v>
       </c>
       <c r="M5" t="n">
-        <v>17735992.65973209</v>
+        <v>8866873.466862671</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4902871.825195556</v>
+        <v>1385109.056726083</v>
       </c>
       <c r="C6" t="n">
-        <v>10263681.30083965</v>
+        <v>1663656.627936282</v>
       </c>
       <c r="D6" t="n">
-        <v>7028145.257787433</v>
+        <v>-613551.3005482857</v>
       </c>
       <c r="E6" t="n">
-        <v>8114061.885590139</v>
+        <v>8130170.627546559</v>
       </c>
       <c r="F6" t="n">
-        <v>11352481.71372475</v>
+        <v>-1122903.98271869</v>
       </c>
       <c r="G6" t="n">
-        <v>10397868.88125923</v>
+        <v>872007.5455035658</v>
       </c>
       <c r="H6" t="n">
-        <v>9617559.32794234</v>
+        <v>-33590.19583228929</v>
       </c>
       <c r="I6" t="n">
-        <v>10258374.408427</v>
+        <v>137732.2805757958</v>
       </c>
       <c r="J6" t="n">
-        <v>9964856.019432932</v>
+        <v>-1276292.228174269</v>
       </c>
       <c r="K6" t="n">
-        <v>9377405.004375314</v>
+        <v>1420690.701800052</v>
       </c>
       <c r="L6" t="n">
-        <v>11382801.06927899</v>
+        <v>723584.2108395805</v>
       </c>
       <c r="M6" t="n">
-        <v>22408401.64387756</v>
+        <v>232236.7594274235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>582778.9264289457</v>
+        <v>12780418.19802513</v>
       </c>
       <c r="C7" t="n">
-        <v>2810136.503386343</v>
+        <v>14134098.64393517</v>
       </c>
       <c r="D7" t="n">
-        <v>2462167.213650907</v>
+        <v>13106999.08544226</v>
       </c>
       <c r="E7" t="n">
-        <v>2873790.956871387</v>
+        <v>16071133.36241951</v>
       </c>
       <c r="F7" t="n">
-        <v>1638808.116202573</v>
+        <v>12546815.76108744</v>
       </c>
       <c r="G7" t="n">
-        <v>4271816.442620781</v>
+        <v>12895169.98262312</v>
       </c>
       <c r="H7" t="n">
-        <v>3128167.031149931</v>
+        <v>12019918.00244473</v>
       </c>
       <c r="I7" t="n">
-        <v>2539923.765803312</v>
+        <v>11334137.21045199</v>
       </c>
       <c r="J7" t="n">
-        <v>2679432.890463353</v>
+        <v>11397537.3154572</v>
       </c>
       <c r="K7" t="n">
-        <v>3198949.191991426</v>
+        <v>9786364.16210247</v>
       </c>
       <c r="L7" t="n">
-        <v>2935891.783477542</v>
+        <v>14348150.95490897</v>
       </c>
       <c r="M7" t="n">
-        <v>3589595.600992879</v>
+        <v>12416207.73949301</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1330722.266848543</v>
+        <v>26102037.77121006</v>
       </c>
       <c r="C8" t="n">
-        <v>1685980.20367395</v>
+        <v>26351022.02619822</v>
       </c>
       <c r="D8" t="n">
-        <v>1242836.665597412</v>
+        <v>26487504.14852301</v>
       </c>
       <c r="E8" t="n">
-        <v>1652397.883327799</v>
+        <v>25797642.86405868</v>
       </c>
       <c r="F8" t="n">
-        <v>1728405.716229232</v>
+        <v>24006328.38618346</v>
       </c>
       <c r="G8" t="n">
-        <v>1900342.784229813</v>
+        <v>23211414.50998928</v>
       </c>
       <c r="H8" t="n">
-        <v>1946444.421216163</v>
+        <v>23172208.48395144</v>
       </c>
       <c r="I8" t="n">
-        <v>1703596.329954484</v>
+        <v>20395053.16555115</v>
       </c>
       <c r="J8" t="n">
-        <v>1371514.466999765</v>
+        <v>22138347.33900815</v>
       </c>
       <c r="K8" t="n">
-        <v>2330243.920918033</v>
+        <v>22389518.30314077</v>
       </c>
       <c r="L8" t="n">
-        <v>1768436.640556896</v>
+        <v>23202625.52715532</v>
       </c>
       <c r="M8" t="n">
-        <v>1957710.122618817</v>
+        <v>14827540.84038404</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5479902.916411403</v>
+        <v>23312694.77698474</v>
       </c>
       <c r="C9" t="n">
-        <v>5943777.624366558</v>
+        <v>29536660.3459859</v>
       </c>
       <c r="D9" t="n">
-        <v>6520116.835931367</v>
+        <v>27752407.42235448</v>
       </c>
       <c r="E9" t="n">
-        <v>6589036.428557218</v>
+        <v>29957306.67498972</v>
       </c>
       <c r="F9" t="n">
-        <v>7376730.794163357</v>
+        <v>31219463.98856441</v>
       </c>
       <c r="G9" t="n">
-        <v>5881645.477319686</v>
+        <v>31537385.22431247</v>
       </c>
       <c r="H9" t="n">
-        <v>5979638.275166336</v>
+        <v>33854220.4533641</v>
       </c>
       <c r="I9" t="n">
-        <v>5337613.318267433</v>
+        <v>26729700.59588828</v>
       </c>
       <c r="J9" t="n">
-        <v>4519153.550091507</v>
+        <v>35874464.85213959</v>
       </c>
       <c r="K9" t="n">
-        <v>6496981.073832985</v>
+        <v>35207625.48441567</v>
       </c>
       <c r="L9" t="n">
-        <v>6298813.149260302</v>
+        <v>38577205.45852683</v>
       </c>
       <c r="M9" t="n">
-        <v>8587421.329978155</v>
+        <v>23141102.24035908</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5737591.041476324</v>
+        <v>18412107.96380399</v>
       </c>
       <c r="C10" t="n">
-        <v>7700958.221554678</v>
+        <v>20404821.6326011</v>
       </c>
       <c r="D10" t="n">
-        <v>8013003.078082772</v>
+        <v>23088805.70947806</v>
       </c>
       <c r="E10" t="n">
-        <v>9497438.568513013</v>
+        <v>24957615.34267031</v>
       </c>
       <c r="F10" t="n">
-        <v>8928626.566794693</v>
+        <v>24145985.91693199</v>
       </c>
       <c r="G10" t="n">
-        <v>7623980.03078397</v>
+        <v>30125714.53380141</v>
       </c>
       <c r="H10" t="n">
-        <v>6774257.340638516</v>
+        <v>27104115.50338335</v>
       </c>
       <c r="I10" t="n">
-        <v>7609023.444674838</v>
+        <v>22416264.46641915</v>
       </c>
       <c r="J10" t="n">
-        <v>7601632.459021786</v>
+        <v>21756250.56629276</v>
       </c>
       <c r="K10" t="n">
-        <v>5979999.531353988</v>
+        <v>22283581.62182165</v>
       </c>
       <c r="L10" t="n">
-        <v>8041896.59173575</v>
+        <v>22003122.67117702</v>
       </c>
       <c r="M10" t="n">
-        <v>16826324.68820345</v>
+        <v>15649366.73666062</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1377082.574228643</v>
+        <v>17744433.78700236</v>
       </c>
       <c r="C11" t="n">
-        <v>548222.4959417039</v>
+        <v>17058293.99095383</v>
       </c>
       <c r="D11" t="n">
-        <v>264500.3014930189</v>
+        <v>17567035.71148322</v>
       </c>
       <c r="E11" t="n">
-        <v>-1294125.748115044</v>
+        <v>16846893.11553356</v>
       </c>
       <c r="F11" t="n">
-        <v>7635414.159388464</v>
+        <v>19895478.9906354</v>
       </c>
       <c r="G11" t="n">
-        <v>-1430275.951395075</v>
+        <v>18983099.64736992</v>
       </c>
       <c r="H11" t="n">
-        <v>-188264.1442497824</v>
+        <v>17761686.98959982</v>
       </c>
       <c r="I11" t="n">
-        <v>-312734.6558271495</v>
+        <v>17517876.91371638</v>
       </c>
       <c r="J11" t="n">
-        <v>-353619.1424984967</v>
+        <v>20943940.32949261</v>
       </c>
       <c r="K11" t="n">
-        <v>-1498326.115198174</v>
+        <v>20465018.43368073</v>
       </c>
       <c r="L11" t="n">
-        <v>823682.1901442365</v>
+        <v>21449366.51711614</v>
       </c>
       <c r="M11" t="n">
-        <v>-147459.3542283855</v>
+        <v>17129977.92055415</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>75250.66627523821</v>
+        <v>42705757.1180146</v>
       </c>
       <c r="C12" t="n">
-        <v>355858.9311907577</v>
+        <v>44715564.05803734</v>
       </c>
       <c r="D12" t="n">
-        <v>889806.706315416</v>
+        <v>49226420.99352732</v>
       </c>
       <c r="E12" t="n">
-        <v>210753.2219256545</v>
+        <v>45475592.84442756</v>
       </c>
       <c r="F12" t="n">
-        <v>75705.80007542035</v>
+        <v>47383382.63963217</v>
       </c>
       <c r="G12" t="n">
-        <v>-60290.910780231</v>
+        <v>46656446.52728208</v>
       </c>
       <c r="H12" t="n">
-        <v>743351.3398145254</v>
+        <v>41818595.38725603</v>
       </c>
       <c r="I12" t="n">
-        <v>12762.97238757065</v>
+        <v>48004311.64784727</v>
       </c>
       <c r="J12" t="n">
-        <v>275943.6475225544</v>
+        <v>54078471.07468773</v>
       </c>
       <c r="K12" t="n">
-        <v>58400.46241623041</v>
+        <v>58369443.01294342</v>
       </c>
       <c r="L12" t="n">
-        <v>484822.7861674466</v>
+        <v>36818542.27793264</v>
       </c>
       <c r="M12" t="n">
-        <v>810369.182289534</v>
+        <v>36373283.65524468</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2253562.284274972</v>
+        <v>36412673.30942844</v>
       </c>
       <c r="C13" t="n">
-        <v>2175589.200064506</v>
+        <v>38149688.84921407</v>
       </c>
       <c r="D13" t="n">
-        <v>2706691.40802634</v>
+        <v>39766699.93645821</v>
       </c>
       <c r="E13" t="n">
-        <v>2273048.590853936</v>
+        <v>38394373.81772313</v>
       </c>
       <c r="F13" t="n">
-        <v>2996006.976527513</v>
+        <v>40723526.96414417</v>
       </c>
       <c r="G13" t="n">
-        <v>2186135.655417801</v>
+        <v>41989736.76532578</v>
       </c>
       <c r="H13" t="n">
-        <v>2659594.896595119</v>
+        <v>46122764.36884631</v>
       </c>
       <c r="I13" t="n">
-        <v>2349315.293740203</v>
+        <v>50476191.57203458</v>
       </c>
       <c r="J13" t="n">
-        <v>2633935.022066386</v>
+        <v>40613402.46399429</v>
       </c>
       <c r="K13" t="n">
-        <v>3065862.575784535</v>
+        <v>41500836.72192097</v>
       </c>
       <c r="L13" t="n">
-        <v>2864267.649700987</v>
+        <v>34622290.17327394</v>
       </c>
       <c r="M13" t="n">
-        <v>2942331.543939633</v>
+        <v>29380138.05254769</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-925588.1330157102</v>
+        <v>1296517.717374186</v>
       </c>
       <c r="C14" t="n">
-        <v>-184351.9315873368</v>
+        <v>1338435.345121316</v>
       </c>
       <c r="D14" t="n">
-        <v>350572.6721838877</v>
+        <v>1254434.157413692</v>
       </c>
       <c r="E14" t="n">
-        <v>283902.1877566999</v>
+        <v>1125793.326998428</v>
       </c>
       <c r="F14" t="n">
-        <v>-282059.8216575604</v>
+        <v>1513976.033758685</v>
       </c>
       <c r="G14" t="n">
-        <v>-320835.4883275081</v>
+        <v>2258246.629021293</v>
       </c>
       <c r="H14" t="n">
-        <v>-20937.4847501716</v>
+        <v>1356982.282259227</v>
       </c>
       <c r="I14" t="n">
-        <v>-182768.1937475646</v>
+        <v>1434727.49231095</v>
       </c>
       <c r="J14" t="n">
-        <v>-203700.4524969405</v>
+        <v>1129922.05099472</v>
       </c>
       <c r="K14" t="n">
-        <v>447232.7976454432</v>
+        <v>1288613.195473183</v>
       </c>
       <c r="L14" t="n">
-        <v>-50636.56517562202</v>
+        <v>1692491.044561981</v>
       </c>
       <c r="M14" t="n">
-        <v>145203.6794433284</v>
+        <v>529741.6187188912</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1208540.650239014</v>
+        <v>3099103.407093111</v>
       </c>
       <c r="C15" t="n">
-        <v>954714.6937909873</v>
+        <v>5441112.027677754</v>
       </c>
       <c r="D15" t="n">
-        <v>950354.6832794412</v>
+        <v>5282204.413460887</v>
       </c>
       <c r="E15" t="n">
-        <v>1055336.514978339</v>
+        <v>3563204.898573412</v>
       </c>
       <c r="F15" t="n">
-        <v>867329.2748023313</v>
+        <v>4483760.972612789</v>
       </c>
       <c r="G15" t="n">
-        <v>1101153.452869819</v>
+        <v>2944198.560879644</v>
       </c>
       <c r="H15" t="n">
-        <v>1020207.310613969</v>
+        <v>4628470.882293891</v>
       </c>
       <c r="I15" t="n">
-        <v>1077403.778271679</v>
+        <v>4499121.47179636</v>
       </c>
       <c r="J15" t="n">
-        <v>894333.0555018228</v>
+        <v>4785698.721696163</v>
       </c>
       <c r="K15" t="n">
-        <v>669490.2234637879</v>
+        <v>5780248.939036424</v>
       </c>
       <c r="L15" t="n">
-        <v>548057.4937462027</v>
+        <v>5929165.123449004</v>
       </c>
       <c r="M15" t="n">
-        <v>1846724.94415148</v>
+        <v>4197100.047440302</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1376151.635322296</v>
+        <v>6325620.60484871</v>
       </c>
       <c r="C16" t="n">
-        <v>1731833.545821685</v>
+        <v>6446586.226704815</v>
       </c>
       <c r="D16" t="n">
-        <v>1593355.987762699</v>
+        <v>10159342.29585102</v>
       </c>
       <c r="E16" t="n">
-        <v>1579918.056698228</v>
+        <v>8760273.697940828</v>
       </c>
       <c r="F16" t="n">
-        <v>1769427.527704077</v>
+        <v>8784483.082309466</v>
       </c>
       <c r="G16" t="n">
-        <v>1575125.719697131</v>
+        <v>10124163.86709551</v>
       </c>
       <c r="H16" t="n">
-        <v>1677468.2257002</v>
+        <v>7836088.98000082</v>
       </c>
       <c r="I16" t="n">
-        <v>1610024.020456756</v>
+        <v>11288070.80634188</v>
       </c>
       <c r="J16" t="n">
-        <v>1432728.293378349</v>
+        <v>10714511.31066494</v>
       </c>
       <c r="K16" t="n">
-        <v>1797353.99238676</v>
+        <v>11860731.89777677</v>
       </c>
       <c r="L16" t="n">
-        <v>1427779.050928786</v>
+        <v>12010976.42300313</v>
       </c>
       <c r="M16" t="n">
-        <v>1852192.806349603</v>
+        <v>8312078.345038947</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5079136.790457956</v>
+        <v>5872321.263733776</v>
       </c>
       <c r="C17" t="n">
-        <v>6791534.567816791</v>
+        <v>5205589.554430364</v>
       </c>
       <c r="D17" t="n">
-        <v>7214343.000410706</v>
+        <v>6085715.871940264</v>
       </c>
       <c r="E17" t="n">
-        <v>6630170.622992042</v>
+        <v>5302306.74395185</v>
       </c>
       <c r="F17" t="n">
-        <v>9475182.748623382</v>
+        <v>4990897.792349841</v>
       </c>
       <c r="G17" t="n">
-        <v>6784436.536293929</v>
+        <v>5687213.435297441</v>
       </c>
       <c r="H17" t="n">
-        <v>6392788.3815712</v>
+        <v>6600204.707685468</v>
       </c>
       <c r="I17" t="n">
-        <v>6040616.2907696</v>
+        <v>4707426.234233677</v>
       </c>
       <c r="J17" t="n">
-        <v>5495460.617330438</v>
+        <v>6275280.014053161</v>
       </c>
       <c r="K17" t="n">
-        <v>4384680.879473551</v>
+        <v>5797748.443663885</v>
       </c>
       <c r="L17" t="n">
-        <v>4016939.080944855</v>
+        <v>6863993.47925733</v>
       </c>
       <c r="M17" t="n">
-        <v>6634097.610649287</v>
+        <v>3656126.005739572</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1174118.811252876</v>
+        <v>3490836.480902471</v>
       </c>
       <c r="C18" t="n">
-        <v>-40331.43561737076</v>
+        <v>3002645.325929071</v>
       </c>
       <c r="D18" t="n">
-        <v>109527.3840481791</v>
+        <v>3852658.356528944</v>
       </c>
       <c r="E18" t="n">
-        <v>82814.41538211715</v>
+        <v>4900867.697285704</v>
       </c>
       <c r="F18" t="n">
-        <v>-316588.4359000361</v>
+        <v>2868296.778790331</v>
       </c>
       <c r="G18" t="n">
-        <v>-24782.86446454602</v>
+        <v>3710989.724684782</v>
       </c>
       <c r="H18" t="n">
-        <v>-283152.6933106393</v>
+        <v>2672572.407891566</v>
       </c>
       <c r="I18" t="n">
-        <v>-205574.0209667533</v>
+        <v>3625884.112636407</v>
       </c>
       <c r="J18" t="n">
-        <v>-24458.72352756041</v>
+        <v>3558467.338065937</v>
       </c>
       <c r="K18" t="n">
-        <v>-136237.4766602197</v>
+        <v>4430495.510540081</v>
       </c>
       <c r="L18" t="n">
-        <v>-217038.5967084109</v>
+        <v>3212170.519828176</v>
       </c>
       <c r="M18" t="n">
-        <v>1677457.189377454</v>
+        <v>3201290.187260536</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-37570.28533180558</v>
+        <v>6638234.820130603</v>
       </c>
       <c r="C19" t="n">
-        <v>8933.559119438196</v>
+        <v>8348615.748975019</v>
       </c>
       <c r="D19" t="n">
-        <v>113366.5722941959</v>
+        <v>5541950.231414633</v>
       </c>
       <c r="E19" t="n">
-        <v>-16723.17226284662</v>
+        <v>4843080.552683747</v>
       </c>
       <c r="F19" t="n">
-        <v>28169.42934991976</v>
+        <v>4167379.187341642</v>
       </c>
       <c r="G19" t="n">
-        <v>-22472.56280279592</v>
+        <v>6526492.520593179</v>
       </c>
       <c r="H19" t="n">
-        <v>27605.19929662024</v>
+        <v>8418837.08111015</v>
       </c>
       <c r="I19" t="n">
-        <v>2192.449626506933</v>
+        <v>5675237.904730943</v>
       </c>
       <c r="J19" t="n">
-        <v>-144404.3228993544</v>
+        <v>7420787.871477649</v>
       </c>
       <c r="K19" t="n">
-        <v>12682.6065711344</v>
+        <v>6745894.509379872</v>
       </c>
       <c r="L19" t="n">
-        <v>39427.22650543628</v>
+        <v>5161665.096857585</v>
       </c>
       <c r="M19" t="n">
-        <v>77437.39850782612</v>
+        <v>6270765.465972695</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1660985.903517354</v>
+        <v>2865057.301529353</v>
       </c>
       <c r="C20" t="n">
-        <v>3763490.315428228</v>
+        <v>3606460.637937613</v>
       </c>
       <c r="D20" t="n">
-        <v>2517990.978008273</v>
+        <v>402970.4878729412</v>
       </c>
       <c r="E20" t="n">
-        <v>2677563.314495861</v>
+        <v>1293141.912460163</v>
       </c>
       <c r="F20" t="n">
-        <v>2961007.503837929</v>
+        <v>1888967.62306909</v>
       </c>
       <c r="G20" t="n">
-        <v>3144453.948931144</v>
+        <v>1126487.941406883</v>
       </c>
       <c r="H20" t="n">
-        <v>2324457.463988235</v>
+        <v>1030831.190642101</v>
       </c>
       <c r="I20" t="n">
-        <v>3071276.637088596</v>
+        <v>1211147.045415608</v>
       </c>
       <c r="J20" t="n">
-        <v>3746343.345890907</v>
+        <v>2331830.565851657</v>
       </c>
       <c r="K20" t="n">
-        <v>2394231.744386479</v>
+        <v>1889887.758060998</v>
       </c>
       <c r="L20" t="n">
-        <v>2735570.113522266</v>
+        <v>696581.1176457393</v>
       </c>
       <c r="M20" t="n">
-        <v>2012656.645447818</v>
+        <v>1076115.292340381</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1206600.187072448</v>
+        <v>3369632.123409332</v>
       </c>
       <c r="C21" t="n">
-        <v>2347199.483756314</v>
+        <v>4147911.691341894</v>
       </c>
       <c r="D21" t="n">
-        <v>1530718.709683057</v>
+        <v>4779261.964390655</v>
       </c>
       <c r="E21" t="n">
-        <v>2245495.075076193</v>
+        <v>4273814.170573683</v>
       </c>
       <c r="F21" t="n">
-        <v>2945684.877452577</v>
+        <v>5017686.970497529</v>
       </c>
       <c r="G21" t="n">
-        <v>1513537.231863849</v>
+        <v>4544361.259648729</v>
       </c>
       <c r="H21" t="n">
-        <v>1734118.153132161</v>
+        <v>4130568.385614658</v>
       </c>
       <c r="I21" t="n">
-        <v>1667073.804246913</v>
+        <v>2941381.136398343</v>
       </c>
       <c r="J21" t="n">
-        <v>1092755.429307453</v>
+        <v>2834828.462503243</v>
       </c>
       <c r="K21" t="n">
-        <v>1995361.607327935</v>
+        <v>4668248.083397862</v>
       </c>
       <c r="L21" t="n">
-        <v>1580190.416375919</v>
+        <v>5465228.392721284</v>
       </c>
       <c r="M21" t="n">
-        <v>1407358.019467447</v>
+        <v>2863522.994387063</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1466292.19086281</v>
+        <v>9538284.673691593</v>
       </c>
       <c r="C22" t="n">
-        <v>750633.3806191154</v>
+        <v>11802641.57499656</v>
       </c>
       <c r="D22" t="n">
-        <v>1525353.809972992</v>
+        <v>14016538.01633892</v>
       </c>
       <c r="E22" t="n">
-        <v>1219889.658727966</v>
+        <v>12263669.12307114</v>
       </c>
       <c r="F22" t="n">
-        <v>693387.1908004781</v>
+        <v>15571527.43234197</v>
       </c>
       <c r="G22" t="n">
-        <v>694747.0511262827</v>
+        <v>12585035.44363517</v>
       </c>
       <c r="H22" t="n">
-        <v>234212.3607275015</v>
+        <v>11918540.32553144</v>
       </c>
       <c r="I22" t="n">
-        <v>6875.276542959269</v>
+        <v>16503430.06084186</v>
       </c>
       <c r="J22" t="n">
-        <v>85367.8323118448</v>
+        <v>12878726.816447</v>
       </c>
       <c r="K22" t="n">
-        <v>204677.2587074875</v>
+        <v>14886401.26209254</v>
       </c>
       <c r="L22" t="n">
-        <v>346232.0294417441</v>
+        <v>11919472.21473641</v>
       </c>
       <c r="M22" t="n">
-        <v>761194.2131032358</v>
+        <v>9250185.004487386</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-33686.70755672282</v>
+        <v>10670676.07997129</v>
       </c>
       <c r="C23" t="n">
-        <v>156851.8236515346</v>
+        <v>9790402.154632483</v>
       </c>
       <c r="D23" t="n">
-        <v>93157.58299135673</v>
+        <v>10354810.26406519</v>
       </c>
       <c r="E23" t="n">
-        <v>-10878.97727850984</v>
+        <v>9937522.139442544</v>
       </c>
       <c r="F23" t="n">
-        <v>44632.92209662127</v>
+        <v>9432372.438847132</v>
       </c>
       <c r="G23" t="n">
-        <v>-27822.00152586753</v>
+        <v>9321757.975838128</v>
       </c>
       <c r="H23" t="n">
-        <v>-22298.06284230548</v>
+        <v>7115481.574794952</v>
       </c>
       <c r="I23" t="n">
-        <v>-16445.49769451029</v>
+        <v>7265443.749758758</v>
       </c>
       <c r="J23" t="n">
-        <v>-11462.88550388399</v>
+        <v>7898718.274751727</v>
       </c>
       <c r="K23" t="n">
-        <v>-7944.630594142207</v>
+        <v>9605671.374328846</v>
       </c>
       <c r="L23" t="n">
-        <v>-4846.073314998463</v>
+        <v>6253802.924357491</v>
       </c>
       <c r="M23" t="n">
-        <v>70965.56401808333</v>
+        <v>4944223.792530846</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10435804.75399293</v>
+        <v>10576345.79431301</v>
       </c>
       <c r="C24" t="n">
-        <v>14017994.41001074</v>
+        <v>12203569.93388187</v>
       </c>
       <c r="D24" t="n">
-        <v>16068420.61957095</v>
+        <v>12799782.69077479</v>
       </c>
       <c r="E24" t="n">
-        <v>16024898.30528226</v>
+        <v>9279257.57871473</v>
       </c>
       <c r="F24" t="n">
-        <v>14814365.7128206</v>
+        <v>10581046.54280431</v>
       </c>
       <c r="G24" t="n">
-        <v>15477855.82307202</v>
+        <v>11308665.93760665</v>
       </c>
       <c r="H24" t="n">
-        <v>14942304.96605654</v>
+        <v>8825960.958306838</v>
       </c>
       <c r="I24" t="n">
-        <v>14688110.75949119</v>
+        <v>9782830.143308446</v>
       </c>
       <c r="J24" t="n">
-        <v>12648168.52252654</v>
+        <v>9639634.358406596</v>
       </c>
       <c r="K24" t="n">
-        <v>12991660.25273141</v>
+        <v>14422561.78121062</v>
       </c>
       <c r="L24" t="n">
-        <v>14392069.46606291</v>
+        <v>13130294.35516607</v>
       </c>
       <c r="M24" t="n">
-        <v>13507321.70378004</v>
+        <v>8289021.812974395</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2044266.885957699</v>
+        <v>5325362.185743701</v>
       </c>
       <c r="C25" t="n">
-        <v>3986515.741628626</v>
+        <v>5575682.615252987</v>
       </c>
       <c r="D25" t="n">
-        <v>3142308.340787828</v>
+        <v>6065338.71476204</v>
       </c>
       <c r="E25" t="n">
-        <v>3171408.699123617</v>
+        <v>4779599.983070424</v>
       </c>
       <c r="F25" t="n">
-        <v>3546177.860631885</v>
+        <v>5023874.084338009</v>
       </c>
       <c r="G25" t="n">
-        <v>2160641.353360634</v>
+        <v>5135431.049537327</v>
       </c>
       <c r="H25" t="n">
-        <v>3061836.478851887</v>
+        <v>6925693.43247351</v>
       </c>
       <c r="I25" t="n">
-        <v>3073917.363678467</v>
+        <v>4809774.367077158</v>
       </c>
       <c r="J25" t="n">
-        <v>2304125.579133392</v>
+        <v>5126581.667925346</v>
       </c>
       <c r="K25" t="n">
-        <v>3781395.558421759</v>
+        <v>5519056.510398562</v>
       </c>
       <c r="L25" t="n">
-        <v>3007393.095207188</v>
+        <v>5603716.180276012</v>
       </c>
       <c r="M25" t="n">
-        <v>2786549.992537657</v>
+        <v>3281572.412737446</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11988753.52451878</v>
+        <v>15432653.86845478</v>
       </c>
       <c r="C26" t="n">
-        <v>12045325.80382992</v>
+        <v>14689800.42497282</v>
       </c>
       <c r="D26" t="n">
-        <v>14337881.58861327</v>
+        <v>14848861.07982618</v>
       </c>
       <c r="E26" t="n">
-        <v>15237821.06135228</v>
+        <v>17248709.49157672</v>
       </c>
       <c r="F26" t="n">
-        <v>15572003.07120039</v>
+        <v>14284644.17115315</v>
       </c>
       <c r="G26" t="n">
-        <v>15913480.61148112</v>
+        <v>11590417.06773269</v>
       </c>
       <c r="H26" t="n">
-        <v>15722637.59296715</v>
+        <v>12867743.20831456</v>
       </c>
       <c r="I26" t="n">
-        <v>14982469.96145373</v>
+        <v>13439041.77655938</v>
       </c>
       <c r="J26" t="n">
-        <v>11945880.38592846</v>
+        <v>13556052.47268855</v>
       </c>
       <c r="K26" t="n">
-        <v>12107262.59438308</v>
+        <v>14540979.77047231</v>
       </c>
       <c r="L26" t="n">
-        <v>15406306.88247766</v>
+        <v>13829261.51947441</v>
       </c>
       <c r="M26" t="n">
-        <v>12980681.62986802</v>
+        <v>8611789.988136303</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>11190201.88295166</v>
+        <v>5461643.886268393</v>
       </c>
       <c r="C27" t="n">
-        <v>10011171.41794141</v>
+        <v>6353352.86168576</v>
       </c>
       <c r="D27" t="n">
-        <v>14130366.67521203</v>
+        <v>4931692.272370343</v>
       </c>
       <c r="E27" t="n">
-        <v>11347391.49152788</v>
+        <v>5103784.326455638</v>
       </c>
       <c r="F27" t="n">
-        <v>13914672.91978311</v>
+        <v>3622090.286546095</v>
       </c>
       <c r="G27" t="n">
-        <v>15230153.25179559</v>
+        <v>4281190.507669192</v>
       </c>
       <c r="H27" t="n">
-        <v>15060629.93378654</v>
+        <v>4783841.131590366</v>
       </c>
       <c r="I27" t="n">
-        <v>18143836.87489115</v>
+        <v>4369401.978459475</v>
       </c>
       <c r="J27" t="n">
-        <v>13889272.84561876</v>
+        <v>3686790.349129664</v>
       </c>
       <c r="K27" t="n">
-        <v>22909221.87869239</v>
+        <v>5138528.006508296</v>
       </c>
       <c r="L27" t="n">
-        <v>18900673.05115025</v>
+        <v>5441575.307908965</v>
       </c>
       <c r="M27" t="n">
-        <v>24720772.59241389</v>
+        <v>2606344.827904205</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>17531694.1236223</v>
+        <v>12327419.66232173</v>
       </c>
       <c r="C28" t="n">
-        <v>16979365.28555363</v>
+        <v>12539030.21890202</v>
       </c>
       <c r="D28" t="n">
-        <v>18923343.11858938</v>
+        <v>11668551.75578689</v>
       </c>
       <c r="E28" t="n">
-        <v>21636478.16350148</v>
+        <v>8315777.688864425</v>
       </c>
       <c r="F28" t="n">
-        <v>23524891.53765598</v>
+        <v>10651223.73799061</v>
       </c>
       <c r="G28" t="n">
-        <v>22730784.65415478</v>
+        <v>10877349.1453283</v>
       </c>
       <c r="H28" t="n">
-        <v>28726219.54197492</v>
+        <v>12777952.6990008</v>
       </c>
       <c r="I28" t="n">
-        <v>25718626.78370349</v>
+        <v>11140241.91638608</v>
       </c>
       <c r="J28" t="n">
-        <v>21041799.30029687</v>
+        <v>10907108.45026755</v>
       </c>
       <c r="K28" t="n">
-        <v>20389250.81422817</v>
+        <v>9520388.96099915</v>
       </c>
       <c r="L28" t="n">
-        <v>20916465.6810281</v>
+        <v>9763392.136256043</v>
       </c>
       <c r="M28" t="n">
-        <v>20618047.60126837</v>
+        <v>8165294.784026265</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15411439.32954714</v>
+        <v>2005589.345954398</v>
       </c>
       <c r="C29" t="n">
-        <v>16618783.12383202</v>
+        <v>2389356.132753273</v>
       </c>
       <c r="D29" t="n">
-        <v>16010061.75705621</v>
+        <v>2541946.015930903</v>
       </c>
       <c r="E29" t="n">
-        <v>16519168.8643819</v>
+        <v>2518899.433128526</v>
       </c>
       <c r="F29" t="n">
-        <v>15812652.80849452</v>
+        <v>2668907.359954162</v>
       </c>
       <c r="G29" t="n">
-        <v>18863054.67178173</v>
+        <v>2716721.663615034</v>
       </c>
       <c r="H29" t="n">
-        <v>17984247.02048241</v>
+        <v>2052463.205431115</v>
       </c>
       <c r="I29" t="n">
-        <v>16806236.60038925</v>
+        <v>2156967.187818391</v>
       </c>
       <c r="J29" t="n">
-        <v>16592535.76704701</v>
+        <v>2260654.307171957</v>
       </c>
       <c r="K29" t="n">
-        <v>20051835.22810857</v>
+        <v>2432965.792502782</v>
       </c>
       <c r="L29" t="n">
-        <v>19601023.24794777</v>
+        <v>2089352.364247244</v>
       </c>
       <c r="M29" t="n">
-        <v>20582185.08325653</v>
+        <v>1834032.635501599</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>41077459.45725444</v>
+        <v>284355.3613259878</v>
       </c>
       <c r="C30" t="n">
-        <v>43668484.21382464</v>
+        <v>305177.9920675099</v>
       </c>
       <c r="D30" t="n">
-        <v>45650044.25670855</v>
+        <v>427039.0587476866</v>
       </c>
       <c r="E30" t="n">
-        <v>50076102.57619907</v>
+        <v>267431.1028600513</v>
       </c>
       <c r="F30" t="n">
-        <v>46205665.41007138</v>
+        <v>205780.1761631123</v>
       </c>
       <c r="G30" t="n">
-        <v>47987330.23238603</v>
+        <v>433533.9087654083</v>
       </c>
       <c r="H30" t="n">
-        <v>47132462.90548383</v>
+        <v>329073.7130660604</v>
       </c>
       <c r="I30" t="n">
-        <v>42166429.01421716</v>
+        <v>469848.252145444</v>
       </c>
       <c r="J30" t="n">
-        <v>48224837.70689039</v>
+        <v>194564.7584707518</v>
       </c>
       <c r="K30" t="n">
-        <v>54174440.89629071</v>
+        <v>273778.1162242311</v>
       </c>
       <c r="L30" t="n">
-        <v>58344679.61404487</v>
+        <v>649444.0536695606</v>
       </c>
       <c r="M30" t="n">
-        <v>36635631.83974437</v>
+        <v>435480.9086071455</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36042298.65867844</v>
+        <v>994620.6304965904</v>
       </c>
       <c r="C31" t="n">
-        <v>37401365.48203769</v>
+        <v>1407577.902023597</v>
       </c>
       <c r="D31" t="n">
-        <v>39174090.36959325</v>
+        <v>1106341.254513043</v>
       </c>
       <c r="E31" t="n">
-        <v>40739475.39985835</v>
+        <v>912607.3094992224</v>
       </c>
       <c r="F31" t="n">
-        <v>39293109.99441925</v>
+        <v>1135805.919024279</v>
       </c>
       <c r="G31" t="n">
-        <v>41550992.98933295</v>
+        <v>836268.4621792207</v>
       </c>
       <c r="H31" t="n">
-        <v>42746647.84714559</v>
+        <v>915662.4780828636</v>
       </c>
       <c r="I31" t="n">
-        <v>46806569.46087037</v>
+        <v>1037478.777990303</v>
       </c>
       <c r="J31" t="n">
-        <v>51081513.40564965</v>
+        <v>1097151.950787435</v>
       </c>
       <c r="K31" t="n">
-        <v>41133765.68888897</v>
+        <v>1034674.636566166</v>
       </c>
       <c r="L31" t="n">
-        <v>41929311.43412732</v>
+        <v>1441284.529575192</v>
       </c>
       <c r="M31" t="n">
-        <v>34916939.58969923</v>
+        <v>2446402.876392663</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1233725.792186023</v>
+        <v>1398967.078996838</v>
       </c>
       <c r="C32" t="n">
-        <v>1344997.672435553</v>
+        <v>1740201.318816202</v>
       </c>
       <c r="D32" t="n">
-        <v>1379613.407552825</v>
+        <v>1886052.186209909</v>
       </c>
       <c r="E32" t="n">
-        <v>1290107.7414978</v>
+        <v>1664731.745005833</v>
       </c>
       <c r="F32" t="n">
-        <v>1154047.747080686</v>
+        <v>1705592.851516918</v>
       </c>
       <c r="G32" t="n">
-        <v>1534313.090700241</v>
+        <v>1946003.763206397</v>
       </c>
       <c r="H32" t="n">
-        <v>2270383.495043186</v>
+        <v>1935386.207736687</v>
       </c>
       <c r="I32" t="n">
-        <v>1360487.86760523</v>
+        <v>1907925.83341469</v>
       </c>
       <c r="J32" t="n">
-        <v>1428917.424579928</v>
+        <v>1938939.278625791</v>
       </c>
       <c r="K32" t="n">
-        <v>1113983.903063765</v>
+        <v>1463687.175049483</v>
       </c>
       <c r="L32" t="n">
-        <v>1261540.996448018</v>
+        <v>1931123.033650451</v>
       </c>
       <c r="M32" t="n">
-        <v>1652617.639737052</v>
+        <v>1303065.891700181</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3658433.019939044</v>
+        <v>2327445.662057918</v>
       </c>
       <c r="C33" t="n">
-        <v>2987242.53589413</v>
+        <v>2778602.90930345</v>
       </c>
       <c r="D33" t="n">
-        <v>5337290.327081298</v>
+        <v>3007724.328592563</v>
       </c>
       <c r="E33" t="n">
-        <v>5171827.38793002</v>
+        <v>2418853.263885656</v>
       </c>
       <c r="F33" t="n">
-        <v>3448024.739218948</v>
+        <v>2794601.373355828</v>
       </c>
       <c r="G33" t="n">
-        <v>4364621.607277962</v>
+        <v>2918001.918912714</v>
       </c>
       <c r="H33" t="n">
-        <v>2821723.00302552</v>
+        <v>2845329.634866671</v>
       </c>
       <c r="I33" t="n">
-        <v>4503608.267226766</v>
+        <v>3348352.473352564</v>
       </c>
       <c r="J33" t="n">
-        <v>4373255.889272916</v>
+        <v>2516066.375709462</v>
       </c>
       <c r="K33" t="n">
-        <v>4660680.002836146</v>
+        <v>2276245.77650186</v>
       </c>
       <c r="L33" t="n">
-        <v>5658620.350631956</v>
+        <v>3146576.115610594</v>
       </c>
       <c r="M33" t="n">
-        <v>5813214.834793346</v>
+        <v>2826782.228434113</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12921529.47410217</v>
+        <v>2883145.331195813</v>
       </c>
       <c r="C34" t="n">
-        <v>8130328.627469769</v>
+        <v>3000415.64147145</v>
       </c>
       <c r="D34" t="n">
-        <v>8319173.338696605</v>
+        <v>3027336.63493374</v>
       </c>
       <c r="E34" t="n">
-        <v>11921877.45079004</v>
+        <v>3523146.407777544</v>
       </c>
       <c r="F34" t="n">
-        <v>10385510.56910106</v>
+        <v>3412549.439987176</v>
       </c>
       <c r="G34" t="n">
-        <v>10273862.49359333</v>
+        <v>2831015.601236519</v>
       </c>
       <c r="H34" t="n">
-        <v>11480688.37994889</v>
+        <v>2920367.089569981</v>
       </c>
       <c r="I34" t="n">
-        <v>9060857.626295408</v>
+        <v>4151871.012181764</v>
       </c>
       <c r="J34" t="n">
-        <v>12379865.47200831</v>
+        <v>3488594.152737571</v>
       </c>
       <c r="K34" t="n">
-        <v>11670915.70605531</v>
+        <v>3461568.57067109</v>
       </c>
       <c r="L34" t="n">
-        <v>12679288.03354827</v>
+        <v>3458029.073577473</v>
       </c>
       <c r="M34" t="n">
-        <v>12697160.71099388</v>
+        <v>2820977.059727231</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4460607.461690146</v>
+        <v>958209.3322328146</v>
       </c>
       <c r="C35" t="n">
-        <v>5841053.947666587</v>
+        <v>1805414.468464271</v>
       </c>
       <c r="D35" t="n">
-        <v>5175514.886386734</v>
+        <v>1350565.889978329</v>
       </c>
       <c r="E35" t="n">
-        <v>6047521.599708809</v>
+        <v>1265222.366466414</v>
       </c>
       <c r="F35" t="n">
-        <v>5258059.15375956</v>
+        <v>982490.6672905136</v>
       </c>
       <c r="G35" t="n">
-        <v>4941482.926680858</v>
+        <v>1763651.954651134</v>
       </c>
       <c r="H35" t="n">
-        <v>5632659.789182505</v>
+        <v>1489419.42732061</v>
       </c>
       <c r="I35" t="n">
-        <v>6540123.634352682</v>
+        <v>1876810.186674867</v>
       </c>
       <c r="J35" t="n">
-        <v>4640991.646582739</v>
+        <v>1686922.148117652</v>
       </c>
       <c r="K35" t="n">
-        <v>6201206.088765593</v>
+        <v>1047015.554722078</v>
       </c>
       <c r="L35" t="n">
-        <v>5714527.297836716</v>
+        <v>1710243.762550991</v>
       </c>
       <c r="M35" t="n">
-        <v>6782450.752260219</v>
+        <v>874319.1128746907</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2499095.581915167</v>
+        <v>1637384.151576502</v>
       </c>
       <c r="C36" t="n">
-        <v>3343026.674148522</v>
+        <v>1238661.127305975</v>
       </c>
       <c r="D36" t="n">
-        <v>2835865.236654012</v>
+        <v>1584075.911541097</v>
       </c>
       <c r="E36" t="n">
-        <v>3688331.509103838</v>
+        <v>1332713.151792499</v>
       </c>
       <c r="F36" t="n">
-        <v>4741348.986983755</v>
+        <v>1330536.614227341</v>
       </c>
       <c r="G36" t="n">
-        <v>2712850.662098987</v>
+        <v>1237200.092364532</v>
       </c>
       <c r="H36" t="n">
-        <v>3559160.869406387</v>
+        <v>1021457.763491046</v>
       </c>
       <c r="I36" t="n">
-        <v>2524720.316942578</v>
+        <v>889019.2158034059</v>
       </c>
       <c r="J36" t="n">
-        <v>3483193.048236566</v>
+        <v>1220231.352612455</v>
       </c>
       <c r="K36" t="n">
-        <v>3422781.213376271</v>
+        <v>620944.3770983675</v>
       </c>
       <c r="L36" t="n">
-        <v>4304005.213860681</v>
+        <v>489124.4886485864</v>
       </c>
       <c r="M36" t="n">
-        <v>3095820.309861931</v>
+        <v>906401.9034937249</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5001167.246038322</v>
+        <v>2773543.185556711</v>
       </c>
       <c r="C37" t="n">
-        <v>6564222.407484787</v>
+        <v>3959359.239661757</v>
       </c>
       <c r="D37" t="n">
-        <v>8236075.636618156</v>
+        <v>4336270.821794073</v>
       </c>
       <c r="E37" t="n">
-        <v>5428812.888305445</v>
+        <v>3617556.003321107</v>
       </c>
       <c r="F37" t="n">
-        <v>4727868.603338217</v>
+        <v>2858213.178786227</v>
       </c>
       <c r="G37" t="n">
-        <v>4047518.373210101</v>
+        <v>3745064.7665214</v>
       </c>
       <c r="H37" t="n">
-        <v>6400710.383036213</v>
+        <v>4356977.161876068</v>
       </c>
       <c r="I37" t="n">
-        <v>8286758.972989206</v>
+        <v>3677726.363247739</v>
       </c>
       <c r="J37" t="n">
-        <v>5537419.755028394</v>
+        <v>4304305.394086346</v>
       </c>
       <c r="K37" t="n">
-        <v>7278555.3074632</v>
+        <v>3692613.306965605</v>
       </c>
       <c r="L37" t="n">
-        <v>6602731.392964476</v>
+        <v>2887309.316938197</v>
       </c>
       <c r="M37" t="n">
-        <v>5023072.862991598</v>
+        <v>3061897.654322195</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1826561.062171848</v>
+        <v>4683310.033582207</v>
       </c>
       <c r="C38" t="n">
-        <v>3365939.178165472</v>
+        <v>4313353.717297245</v>
       </c>
       <c r="D38" t="n">
-        <v>4089208.729220186</v>
+        <v>4632329.89763172</v>
       </c>
       <c r="E38" t="n">
-        <v>858930.546139732</v>
+        <v>4949850.767257656</v>
       </c>
       <c r="F38" t="n">
-        <v>1717625.099944667</v>
+        <v>4417185.168098104</v>
       </c>
       <c r="G38" t="n">
-        <v>2281091.432654025</v>
+        <v>4549091.387709451</v>
       </c>
       <c r="H38" t="n">
-        <v>1486207.907395668</v>
+        <v>4368222.922585973</v>
       </c>
       <c r="I38" t="n">
-        <v>1358109.526417091</v>
+        <v>5198298.969588436</v>
       </c>
       <c r="J38" t="n">
-        <v>1505913.895044551</v>
+        <v>6128487.851207176</v>
       </c>
       <c r="K38" t="n">
-        <v>2594156.481422104</v>
+        <v>3928746.343219991</v>
       </c>
       <c r="L38" t="n">
-        <v>2120721.202698665</v>
+        <v>5338345.627334444</v>
       </c>
       <c r="M38" t="n">
-        <v>905028.048160424</v>
+        <v>3248226.712865802</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4450799.580013675</v>
+        <v>4489199.191968142</v>
       </c>
       <c r="C39" t="n">
-        <v>3657129.759537287</v>
+        <v>5577308.228050348</v>
       </c>
       <c r="D39" t="n">
-        <v>4441524.846117924</v>
+        <v>5654672.187403488</v>
       </c>
       <c r="E39" t="n">
-        <v>5049850.905098301</v>
+        <v>5622163.388903403</v>
       </c>
       <c r="F39" t="n">
-        <v>4519204.246560833</v>
+        <v>5293644.151545724</v>
       </c>
       <c r="G39" t="n">
-        <v>5238571.526237079</v>
+        <v>5481559.841214085</v>
       </c>
       <c r="H39" t="n">
-        <v>4740798.870288223</v>
+        <v>6091474.518202052</v>
       </c>
       <c r="I39" t="n">
-        <v>4301715.680681592</v>
+        <v>4789399.835180784</v>
       </c>
       <c r="J39" t="n">
-        <v>3085464.932601444</v>
+        <v>6448781.47978725</v>
       </c>
       <c r="K39" t="n">
-        <v>2949327.412127806</v>
+        <v>4291178.443084123</v>
       </c>
       <c r="L39" t="n">
-        <v>4750015.946290843</v>
+        <v>4827476.273527974</v>
       </c>
       <c r="M39" t="n">
-        <v>5518806.639713123</v>
+        <v>4015192.190357853</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11404155.85370218</v>
+        <v>3879159.953882073</v>
       </c>
       <c r="C40" t="n">
-        <v>9820869.701640218</v>
+        <v>5404256.493627439</v>
       </c>
       <c r="D40" t="n">
-        <v>12066969.27524416</v>
+        <v>4732266.412587533</v>
       </c>
       <c r="E40" t="n">
-        <v>14257580.63300069</v>
+        <v>4811049.645876998</v>
       </c>
       <c r="F40" t="n">
-        <v>12474309.45163506</v>
+        <v>5009356.520882403</v>
       </c>
       <c r="G40" t="n">
-        <v>15750690.88214654</v>
+        <v>4614412.987729348</v>
       </c>
       <c r="H40" t="n">
-        <v>12732184.3520716</v>
+        <v>4581820.836519171</v>
       </c>
       <c r="I40" t="n">
-        <v>12032476.39327362</v>
+        <v>4653586.31183217</v>
       </c>
       <c r="J40" t="n">
-        <v>16582161.05593497</v>
+        <v>5000161.242950976</v>
       </c>
       <c r="K40" t="n">
-        <v>12919979.00650002</v>
+        <v>4626261.941194397</v>
       </c>
       <c r="L40" t="n">
-        <v>14888537.528852</v>
+        <v>4970650.818991526</v>
       </c>
       <c r="M40" t="n">
-        <v>11880750.77572926</v>
+        <v>3811428.663101595</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4859494.367232482</v>
+        <v>1833145.14837625</v>
       </c>
       <c r="C41" t="n">
-        <v>10523537.22133564</v>
+        <v>2844175.881320962</v>
       </c>
       <c r="D41" t="n">
-        <v>9653355.757679977</v>
+        <v>3462255.099878666</v>
       </c>
       <c r="E41" t="n">
-        <v>10222592.7507802</v>
+        <v>2453824.696684927</v>
       </c>
       <c r="F41" t="n">
-        <v>9799466.251536122</v>
+        <v>2655102.136025455</v>
       </c>
       <c r="G41" t="n">
-        <v>9290651.390356934</v>
+        <v>2781434.977222817</v>
       </c>
       <c r="H41" t="n">
-        <v>9177914.318063801</v>
+        <v>2588910.825436304</v>
       </c>
       <c r="I41" t="n">
-        <v>6971267.918824336</v>
+        <v>3372317.352888462</v>
       </c>
       <c r="J41" t="n">
-        <v>7122003.416009227</v>
+        <v>3146835.773249508</v>
       </c>
       <c r="K41" t="n">
-        <v>7757645.555540308</v>
+        <v>2540526.481515265</v>
       </c>
       <c r="L41" t="n">
-        <v>9466486.494329492</v>
+        <v>3627169.99365437</v>
       </c>
       <c r="M41" t="n">
-        <v>6102481.102330431</v>
+        <v>2363664.014426537</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7691636.148115018</v>
+        <v>3129088.707054977</v>
       </c>
       <c r="C42" t="n">
-        <v>10232964.87359194</v>
+        <v>3250212.499488499</v>
       </c>
       <c r="D42" t="n">
-        <v>11882206.03343279</v>
+        <v>3715137.588170042</v>
       </c>
       <c r="E42" t="n">
-        <v>12480900.06787863</v>
+        <v>3990565.375428113</v>
       </c>
       <c r="F42" t="n">
-        <v>8963431.722960027</v>
+        <v>3801867.528132315</v>
       </c>
       <c r="G42" t="n">
-        <v>10270310.29865545</v>
+        <v>3360024.619470688</v>
       </c>
       <c r="H42" t="n">
-        <v>11003994.12016327</v>
+        <v>4367438.60643672</v>
       </c>
       <c r="I42" t="n">
-        <v>8528208.261789003</v>
+        <v>4582210.556865788</v>
       </c>
       <c r="J42" t="n">
-        <v>9492773.890588682</v>
+        <v>4206246.230136312</v>
       </c>
       <c r="K42" t="n">
-        <v>9358000.729449226</v>
+        <v>3915315.2126626</v>
       </c>
       <c r="L42" t="n">
-        <v>14151621.94925139</v>
+        <v>3699619.635105175</v>
       </c>
       <c r="M42" t="n">
-        <v>12884029.31697103</v>
+        <v>2564595.158339359</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3703165.78541381</v>
+        <v>2125023.507933083</v>
       </c>
       <c r="C43" t="n">
-        <v>5253185.881186327</v>
+        <v>3319195.033068045</v>
       </c>
       <c r="D43" t="n">
-        <v>5522497.785059487</v>
+        <v>3649513.915499134</v>
       </c>
       <c r="E43" t="n">
-        <v>6020490.029643374</v>
+        <v>3335274.810538088</v>
       </c>
       <c r="F43" t="n">
-        <v>4735921.306026576</v>
+        <v>3125347.87215883</v>
       </c>
       <c r="G43" t="n">
-        <v>4982623.159853198</v>
+        <v>3139933.779883056</v>
       </c>
       <c r="H43" t="n">
-        <v>5097721.947322597</v>
+        <v>3060551.31415073</v>
       </c>
       <c r="I43" t="n">
-        <v>6892130.125691975</v>
+        <v>2671699.327572882</v>
       </c>
       <c r="J43" t="n">
-        <v>4780245.482492318</v>
+        <v>3278762.109856032</v>
       </c>
       <c r="K43" t="n">
-        <v>5100688.617450485</v>
+        <v>2655355.06808373</v>
       </c>
       <c r="L43" t="n">
-        <v>5496342.12271172</v>
+        <v>3518723.109158</v>
       </c>
       <c r="M43" t="n">
-        <v>5580439.139626678</v>
+        <v>2216637.85098803</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>11844430.01033184</v>
+        <v>5412338.018901845</v>
       </c>
       <c r="C44" t="n">
-        <v>15655407.25399614</v>
+        <v>6605424.036779334</v>
       </c>
       <c r="D44" t="n">
-        <v>14898938.40705791</v>
+        <v>5868856.597861567</v>
       </c>
       <c r="E44" t="n">
-        <v>15026003.25447117</v>
+        <v>5532289.711669271</v>
       </c>
       <c r="F44" t="n">
-        <v>17390232.21168838</v>
+        <v>5427931.136528675</v>
       </c>
       <c r="G44" t="n">
-        <v>14391432.0199501</v>
+        <v>5952579.915596482</v>
       </c>
       <c r="H44" t="n">
-        <v>11662238.44103954</v>
+        <v>5944683.936894</v>
       </c>
       <c r="I44" t="n">
-        <v>12903024.14070226</v>
+        <v>6419324.22201473</v>
       </c>
       <c r="J44" t="n">
-        <v>13434907.41540074</v>
+        <v>5748394.38100188</v>
       </c>
       <c r="K44" t="n">
-        <v>13508915.36189551</v>
+        <v>6062759.375889335</v>
       </c>
       <c r="L44" t="n">
-        <v>14447074.69625964</v>
+        <v>6373831.836836253</v>
       </c>
       <c r="M44" t="n">
-        <v>13690814.97380004</v>
+        <v>4634884.136979017</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4959772.496082673</v>
+        <v>2657168.498432919</v>
       </c>
       <c r="C45" t="n">
-        <v>6335248.372214817</v>
+        <v>3163567.51452128</v>
       </c>
       <c r="D45" t="n">
-        <v>7245366.598468345</v>
+        <v>3672112.050339659</v>
       </c>
       <c r="E45" t="n">
-        <v>5772498.543873752</v>
+        <v>3602305.020494193</v>
       </c>
       <c r="F45" t="n">
-        <v>5876980.022504449</v>
+        <v>2872643.932500343</v>
       </c>
       <c r="G45" t="n">
-        <v>4327264.259631226</v>
+        <v>3157930.589467711</v>
       </c>
       <c r="H45" t="n">
-        <v>4919194.763779871</v>
+        <v>3197826.332193309</v>
       </c>
       <c r="I45" t="n">
-        <v>5355165.682635916</v>
+        <v>3259213.229151516</v>
       </c>
       <c r="J45" t="n">
-        <v>4873867.512327374</v>
+        <v>3029263.229265815</v>
       </c>
       <c r="K45" t="n">
-        <v>4124063.647779862</v>
+        <v>2467712.646715416</v>
       </c>
       <c r="L45" t="n">
-        <v>5509031.583632512</v>
+        <v>3297897.051926982</v>
       </c>
       <c r="M45" t="n">
-        <v>5750799.930575815</v>
+        <v>2163639.840708878</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>11364141.11521</v>
+        <v>1985580.829723365</v>
       </c>
       <c r="C46" t="n">
-        <v>13424642.54964636</v>
+        <v>3298392.822615641</v>
       </c>
       <c r="D46" t="n">
-        <v>13503534.24941764</v>
+        <v>2216849.153063747</v>
       </c>
       <c r="E46" t="n">
-        <v>12588294.71174768</v>
+        <v>2117382.938079482</v>
       </c>
       <c r="F46" t="n">
-        <v>9173739.033318905</v>
+        <v>2155016.1830821</v>
       </c>
       <c r="G46" t="n">
-        <v>11437837.88811238</v>
+        <v>2164654.732607376</v>
       </c>
       <c r="H46" t="n">
-        <v>11587997.44072072</v>
+        <v>1977635.642044908</v>
       </c>
       <c r="I46" t="n">
-        <v>13408718.80188557</v>
+        <v>3697489.697545088</v>
       </c>
       <c r="J46" t="n">
-        <v>11687560.39008131</v>
+        <v>2900996.681984066</v>
       </c>
       <c r="K46" t="n">
-        <v>11368234.24467112</v>
+        <v>1924356.600122468</v>
       </c>
       <c r="L46" t="n">
-        <v>9894137.314357605</v>
+        <v>2186852.177241353</v>
       </c>
       <c r="M46" t="n">
-        <v>10039954.29075016</v>
+        <v>1460208.637135599</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2167387.88364496</v>
+        <v>2154501.340861378</v>
       </c>
       <c r="C47" t="n">
-        <v>2023905.374003303</v>
+        <v>2509702.25025358</v>
       </c>
       <c r="D47" t="n">
-        <v>2402812.748736525</v>
+        <v>2827212.273758521</v>
       </c>
       <c r="E47" t="n">
-        <v>2551968.1334412</v>
+        <v>2765647.186253085</v>
       </c>
       <c r="F47" t="n">
-        <v>2525326.619711369</v>
+        <v>2199799.074236142</v>
       </c>
       <c r="G47" t="n">
-        <v>2671234.657033278</v>
+        <v>2243317.671856877</v>
       </c>
       <c r="H47" t="n">
-        <v>2714610.789372268</v>
+        <v>2103848.196605868</v>
       </c>
       <c r="I47" t="n">
-        <v>2045603.693815982</v>
+        <v>2253996.879660219</v>
       </c>
       <c r="J47" t="n">
-        <v>2145061.154120398</v>
+        <v>2520041.493735686</v>
       </c>
       <c r="K47" t="n">
-        <v>2243422.413241278</v>
+        <v>2170377.586147082</v>
       </c>
       <c r="L47" t="n">
-        <v>2409990.921547138</v>
+        <v>2178002.684324261</v>
       </c>
       <c r="M47" t="n">
-        <v>2059480.1724834</v>
+        <v>1886203.143170915</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>343132.5018159617</v>
+        <v>4988668.29399464</v>
       </c>
       <c r="C48" t="n">
-        <v>299615.6333904014</v>
+        <v>5331449.680408972</v>
       </c>
       <c r="D48" t="n">
-        <v>330907.8826360141</v>
+        <v>6095316.737108002</v>
       </c>
       <c r="E48" t="n">
-        <v>452720.5779457855</v>
+        <v>5030022.579944113</v>
       </c>
       <c r="F48" t="n">
-        <v>292201.8855264365</v>
+        <v>4716537.669690561</v>
       </c>
       <c r="G48" t="n">
-        <v>230160.0969348101</v>
+        <v>5415749.197238727</v>
       </c>
       <c r="H48" t="n">
-        <v>457958.4416555123</v>
+        <v>4651091.328167354</v>
       </c>
       <c r="I48" t="n">
-        <v>353927.7424506908</v>
+        <v>5284485.540240563</v>
       </c>
       <c r="J48" t="n">
-        <v>495464.6197139451</v>
+        <v>6254098.310042163</v>
       </c>
       <c r="K48" t="n">
-        <v>221242.3209588107</v>
+        <v>4421134.634078909</v>
       </c>
       <c r="L48" t="n">
-        <v>301731.7157685227</v>
+        <v>5194586.248443328</v>
       </c>
       <c r="M48" t="n">
-        <v>679270.9409179394</v>
+        <v>4194454.610140748</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>571137.6141505887</v>
+        <v>854814.219852848</v>
       </c>
       <c r="C49" t="n">
-        <v>568044.5609866111</v>
+        <v>1095844.097479771</v>
       </c>
       <c r="D49" t="n">
-        <v>985218.8339303392</v>
+        <v>1046071.32872431</v>
       </c>
       <c r="E49" t="n">
-        <v>701346.6261159899</v>
+        <v>779611.1840851286</v>
       </c>
       <c r="F49" t="n">
-        <v>531032.8551229595</v>
+        <v>850113.1597313879</v>
       </c>
       <c r="G49" t="n">
-        <v>778414.8617066299</v>
+        <v>820671.8222762001</v>
       </c>
       <c r="H49" t="n">
-        <v>503254.1137610478</v>
+        <v>793927.1498527122</v>
       </c>
       <c r="I49" t="n">
-        <v>607774.4641294775</v>
+        <v>1265229.403530493</v>
       </c>
       <c r="J49" t="n">
-        <v>756115.4742804954</v>
+        <v>1128999.635858957</v>
       </c>
       <c r="K49" t="n">
-        <v>844094.5734501301</v>
+        <v>748935.4642399445</v>
       </c>
       <c r="L49" t="n">
-        <v>812254.3286710401</v>
+        <v>1031152.070808452</v>
       </c>
       <c r="M49" t="n">
-        <v>1253245.3182232</v>
+        <v>720157.3177358125</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1210469.584924679</v>
+        <v>2793564.336430631</v>
       </c>
       <c r="C50" t="n">
-        <v>1365169.190490773</v>
+        <v>2950919.579462701</v>
       </c>
       <c r="D50" t="n">
-        <v>1712223.088703129</v>
+        <v>3272661.223407117</v>
       </c>
       <c r="E50" t="n">
-        <v>1856978.187426735</v>
+        <v>2718997.528077517</v>
       </c>
       <c r="F50" t="n">
-        <v>1635307.978299158</v>
+        <v>3542974.618715708</v>
       </c>
       <c r="G50" t="n">
-        <v>1676206.628370727</v>
+        <v>3097961.327649028</v>
       </c>
       <c r="H50" t="n">
-        <v>1916942.323828789</v>
+        <v>3304600.797880371</v>
       </c>
       <c r="I50" t="n">
-        <v>1906983.840977908</v>
+        <v>3223596.003999409</v>
       </c>
       <c r="J50" t="n">
-        <v>1880616.386231774</v>
+        <v>3213248.487975656</v>
       </c>
       <c r="K50" t="n">
-        <v>1913206.493367581</v>
+        <v>2891566.791877329</v>
       </c>
       <c r="L50" t="n">
-        <v>1440283.099352861</v>
+        <v>2965156.964768362</v>
       </c>
       <c r="M50" t="n">
-        <v>1912055.973445101</v>
+        <v>2512427.117546753</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2846231.888689626</v>
+        <v>3476001.562109855</v>
       </c>
       <c r="C51" t="n">
-        <v>2393489.66609248</v>
+        <v>3571862.586056555</v>
       </c>
       <c r="D51" t="n">
-        <v>2829777.797655006</v>
+        <v>3912434.756163561</v>
       </c>
       <c r="E51" t="n">
-        <v>3051522.850057056</v>
+        <v>3751160.371036403</v>
       </c>
       <c r="F51" t="n">
-        <v>2453569.52044345</v>
+        <v>3555515.973370219</v>
       </c>
       <c r="G51" t="n">
-        <v>2819123.813765433</v>
+        <v>3437282.77658393</v>
       </c>
       <c r="H51" t="n">
-        <v>2931861.203551002</v>
+        <v>3539470.350678355</v>
       </c>
       <c r="I51" t="n">
-        <v>2848218.927946705</v>
+        <v>4073891.053627936</v>
       </c>
       <c r="J51" t="n">
-        <v>3340078.401652863</v>
+        <v>4231663.892281511</v>
       </c>
       <c r="K51" t="n">
-        <v>2496398.850156491</v>
+        <v>3455791.006690987</v>
       </c>
       <c r="L51" t="n">
-        <v>2245533.551171782</v>
+        <v>3113327.076303249</v>
       </c>
       <c r="M51" t="n">
-        <v>3114016.221109146</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>3577894.978735463</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3093651.001021913</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3197690.685843823</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3214201.559491253</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3692797.784993607</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3563726.59958384</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2963358.842651105</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3033405.005013988</v>
-      </c>
-      <c r="J52" t="n">
-        <v>4244811.04787383</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3560529.852705373</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3511402.716633455</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3484313.512684645</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>977984.4509883865</v>
-      </c>
-      <c r="C53" t="n">
-        <v>930147.3873424535</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1774455.358487666</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1322028.052962397</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1240663.310016696</v>
-      </c>
-      <c r="G53" t="n">
-        <v>962020.3574057161</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1747153.393139582</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1476789.644145488</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1867980.887670083</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1681846.751478851</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1045362.869514405</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1712407.799844516</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>914599.1870091269</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1650098.62634108</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1252824.969959608</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1597928.713317157</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1346035.087475789</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1343354.512187165</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1249586.686461169</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1033523.94928737</v>
-      </c>
-      <c r="J54" t="n">
-        <v>900931.6979165865</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1232214.831637263</v>
-      </c>
-      <c r="L54" t="n">
-        <v>633390.4336171859</v>
-      </c>
-      <c r="M54" t="n">
-        <v>501947.7537936426</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3265652.057436738</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3025669.254110788</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4203939.023013968</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4568067.69334046</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3832080.930621554</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3054570.425338078</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3923246.767889176</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4517300.786691811</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3820794.524268009</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4431288.992326296</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3805591.678732547</v>
-      </c>
-      <c r="M55" t="n">
-        <v>2978462.780091207</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3520809.338987953</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4490365.515136517</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4108071.473457101</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4435539.07304477</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4763794.156061723</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4241444.520203728</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4383046.42263622</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4211162.383423923</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5049459.437567949</v>
-      </c>
-      <c r="K56" t="n">
-        <v>5987016.72228609</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3793674.83863329</v>
-      </c>
-      <c r="M56" t="n">
-        <v>5208110.962110551</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4512254.242734831</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4545477.271105004</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5638911.7123441</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5710822.601288636</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5670650.718886966</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5334999.483309052</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5516080.784449051</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6119194.470371002</v>
-      </c>
-      <c r="J57" t="n">
-        <v>4810061.086796816</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6462057.939867354</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4295635.407442689</v>
-      </c>
-      <c r="M57" t="n">
-        <v>4815076.769483329</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>3545208.416747377</v>
-      </c>
-      <c r="C58" t="n">
-        <v>3783371.785809406</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5327564.928718223</v>
-      </c>
-      <c r="E58" t="n">
-        <v>4657210.799701216</v>
-      </c>
-      <c r="F58" t="n">
-        <v>4739412.99154028</v>
-      </c>
-      <c r="G58" t="n">
-        <v>4942654.578970418</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4553427.714843777</v>
-      </c>
-      <c r="I58" t="n">
-        <v>4527217.198655905</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4605971.08548215</v>
-      </c>
-      <c r="K58" t="n">
-        <v>4960065.837905024</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4593867.767733023</v>
-      </c>
-      <c r="M58" t="n">
-        <v>4948065.756068943</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3269783.67690113</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2250023.58415443</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3256491.595590435</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3851670.721554134</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2813027.643848316</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2983182.583274885</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3078423.261833969</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2854757.255050545</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3606763.940932059</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3349693.099541159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2711857.623721561</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3765887.662468981</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>2801393.940273469</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3243773.061007713</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3372148.574264854</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3827560.825222169</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4092159.635842412</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3893133.52815846</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3441408.495666378</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4439363.087292383</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4645094.402392619</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4260631.672990675</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3961814.077293681</v>
-      </c>
-      <c r="M60" t="n">
-        <v>3738238.358893903</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>1996726.604426225</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2043628.894700239</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3245375.462676931</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3579910.709856979</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3268727.891516021</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3062044.904648507</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3080216.088055073</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3005069.573450473</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2621381.884777911</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3234881.077047549</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2619152.800316718</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3483621.819249359</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>6110295.271422694</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5867468.953436352</v>
-      </c>
-      <c r="D62" t="n">
-        <v>7045254.009931027</v>
-      </c>
-      <c r="E62" t="n">
-        <v>6288873.003792042</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5921420.84601441</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5784565.979714841</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6276255.137630789</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6234765.758041986</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6674718.018123259</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5968063.060439615</v>
-      </c>
-      <c r="L62" t="n">
-        <v>6244705.059169464</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6505491.705475821</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2418285.990488035</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2551712.766712462</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3069853.374011355</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3585177.223855868</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3523104.608966907</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2802160.44502739</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3096479.943479442</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3145277.118317774</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3215036.257219869</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2992683.661416599</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2437627.599193437</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3269054.724993885</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2183119.981668928</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2119743.262465809</v>
-      </c>
-      <c r="D64" t="n">
-        <v>3429959.242158989</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2341905.693916113</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2233204.967006015</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2261581.416022315</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2261934.740873497</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2065288.121708933</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3774790.65988362</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2967055.263157321</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1978158.339831862</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2226967.667704085</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2028391.629651031</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2110465.657132763</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2466043.836767561</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2782618.899417098</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2721201.158861221</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2155201.098329742</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2198299.940106633</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2058184.025428557</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2207553.168025529</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2472683.99934569</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2122000.301043618</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2128230.334756265</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5810306.072227727</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5441178.813524449</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5781770.994046109</v>
-      </c>
-      <c r="E66" t="n">
-        <v>6517953.93463987</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5418074.546011855</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5069387.389165946</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5733293.436940093</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4932747.321295574</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5529075.537294964</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6460218.684323384</v>
-      </c>
-      <c r="L66" t="n">
-        <v>4586799.04909344</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5315084.391283977</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>632891.1238830423</v>
-      </c>
-      <c r="C67" t="n">
-        <v>838920.5929122177</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1077694.47906368</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1026478.899961744</v>
-      </c>
-      <c r="F67" t="n">
-        <v>758060.1820484445</v>
-      </c>
-      <c r="G67" t="n">
-        <v>826376.2835308562</v>
-      </c>
-      <c r="H67" t="n">
-        <v>794732.1088494139</v>
-      </c>
-      <c r="I67" t="n">
-        <v>765923.659883661</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1235450.121360685</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1097872.824001743</v>
-      </c>
-      <c r="L67" t="n">
-        <v>717196.9861837346</v>
-      </c>
-      <c r="M67" t="n">
-        <v>999303.5239073939</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2602462.373103891</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2766024.899702155</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2925697.538032674</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3243996.998015659</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2686158.864196315</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3505963.073987298</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3056849.177892558</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3259471.238540994</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3174539.793095546</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3160340.244457926</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2835257.567231681</v>
-      </c>
-      <c r="M68" t="n">
-        <v>2908944.214362731</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3149028.778138762</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3428866.712386596</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3536126.114624928</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3871355.868315147</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3702737.713998087</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3500246.901386661</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3375616.111964021</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3471768.522690522</v>
-      </c>
-      <c r="J69" t="n">
-        <v>4000374.188799588</v>
-      </c>
-      <c r="K69" t="n">
-        <v>4152431.167743353</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3371184.493265785</v>
-      </c>
-      <c r="M69" t="n">
-        <v>3027694.797129968</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>27958104.88171954</v>
-      </c>
-      <c r="C70" t="n">
-        <v>27175714.27384992</v>
-      </c>
-      <c r="D70" t="n">
-        <v>24919049.41485105</v>
-      </c>
-      <c r="E70" t="n">
-        <v>23994002.48490294</v>
-      </c>
-      <c r="F70" t="n">
-        <v>23257909.30199479</v>
-      </c>
-      <c r="G70" t="n">
-        <v>24505819.10408931</v>
-      </c>
-      <c r="H70" t="n">
-        <v>25898119.69534394</v>
-      </c>
-      <c r="I70" t="n">
-        <v>30467008.18367683</v>
-      </c>
-      <c r="J70" t="n">
-        <v>31725944.26985019</v>
-      </c>
-      <c r="K70" t="n">
-        <v>37406567.89636822</v>
-      </c>
-      <c r="L70" t="n">
-        <v>32898043.39474975</v>
-      </c>
-      <c r="M70" t="n">
-        <v>40714259.20878987</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>17947680.48414438</v>
-      </c>
-      <c r="C71" t="n">
-        <v>28452697.95399392</v>
-      </c>
-      <c r="D71" t="n">
-        <v>25271303.61125244</v>
-      </c>
-      <c r="E71" t="n">
-        <v>28637796.83695982</v>
-      </c>
-      <c r="F71" t="n">
-        <v>30929444.79093248</v>
-      </c>
-      <c r="G71" t="n">
-        <v>30167351.40817382</v>
-      </c>
-      <c r="H71" t="n">
-        <v>27301475.96954437</v>
-      </c>
-      <c r="I71" t="n">
-        <v>27309581.90593157</v>
-      </c>
-      <c r="J71" t="n">
-        <v>26107049.97405142</v>
-      </c>
-      <c r="K71" t="n">
-        <v>27418630.52009941</v>
-      </c>
-      <c r="L71" t="n">
-        <v>30455499.84042405</v>
-      </c>
-      <c r="M71" t="n">
-        <v>53399404.66381807</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>-1301831.937590035</v>
-      </c>
-      <c r="C72" t="n">
-        <v>904081.002784445</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1154307.372112748</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-1083372.556037554</v>
-      </c>
-      <c r="F72" t="n">
-        <v>7711119.927854427</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-1490566.89620177</v>
-      </c>
-      <c r="H72" t="n">
-        <v>555087.159701232</v>
-      </c>
-      <c r="I72" t="n">
-        <v>-299971.7196536992</v>
-      </c>
-      <c r="J72" t="n">
-        <v>-77675.5297161151</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-1439925.684608184</v>
-      </c>
-      <c r="L72" t="n">
-        <v>1308505.341939642</v>
-      </c>
-      <c r="M72" t="n">
-        <v>662910.5155760789</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>8984593.303876797</v>
-      </c>
-      <c r="C73" t="n">
-        <v>11465169.53220652</v>
-      </c>
-      <c r="D73" t="n">
-        <v>12806046.24756716</v>
-      </c>
-      <c r="E73" t="n">
-        <v>11810510.87389705</v>
-      </c>
-      <c r="F73" t="n">
-        <v>14816333.83047565</v>
-      </c>
-      <c r="G73" t="n">
-        <v>11334004.41565628</v>
-      </c>
-      <c r="H73" t="n">
-        <v>11723788.35098039</v>
-      </c>
-      <c r="I73" t="n">
-        <v>10891266.80010564</v>
-      </c>
-      <c r="J73" t="n">
-        <v>10251333.52063797</v>
-      </c>
-      <c r="K73" t="n">
-        <v>10364998.51268615</v>
-      </c>
-      <c r="L73" t="n">
-        <v>8808369.127193311</v>
-      </c>
-      <c r="M73" t="n">
-        <v>13423378.22151528</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>15940058.03800024</v>
-      </c>
-      <c r="C74" t="n">
-        <v>25272739.29664621</v>
-      </c>
-      <c r="D74" t="n">
-        <v>25462525.15488659</v>
-      </c>
-      <c r="E74" t="n">
-        <v>25641968.63907663</v>
-      </c>
-      <c r="F74" t="n">
-        <v>24985842.05656585</v>
-      </c>
-      <c r="G74" t="n">
-        <v>23225234.34761535</v>
-      </c>
-      <c r="H74" t="n">
-        <v>22459104.84282261</v>
-      </c>
-      <c r="I74" t="n">
-        <v>22446603.62415294</v>
-      </c>
-      <c r="J74" t="n">
-        <v>19693206.18328195</v>
-      </c>
-      <c r="K74" t="n">
-        <v>21456885.40238149</v>
-      </c>
-      <c r="L74" t="n">
-        <v>21723514.64091723</v>
-      </c>
-      <c r="M74" t="n">
-        <v>22537036.28625621</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>23484452.66809784</v>
-      </c>
-      <c r="C75" t="n">
-        <v>22361403.04192214</v>
-      </c>
-      <c r="D75" t="n">
-        <v>28579595.29439259</v>
-      </c>
-      <c r="E75" t="n">
-        <v>26833068.6847646</v>
-      </c>
-      <c r="F75" t="n">
-        <v>29063158.34161929</v>
-      </c>
-      <c r="G75" t="n">
-        <v>30351988.70536298</v>
-      </c>
-      <c r="H75" t="n">
-        <v>30697569.64096241</v>
-      </c>
-      <c r="I75" t="n">
-        <v>33043665.33510966</v>
-      </c>
-      <c r="J75" t="n">
-        <v>25949696.39995548</v>
-      </c>
-      <c r="K75" t="n">
-        <v>35127439.03239857</v>
-      </c>
-      <c r="L75" t="n">
-        <v>34490216.42198921</v>
-      </c>
-      <c r="M75" t="n">
-        <v>37840779.89362034</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>17531694.1236223</v>
-      </c>
-      <c r="C76" t="n">
-        <v>16979365.28555363</v>
-      </c>
-      <c r="D76" t="n">
-        <v>18923343.11858938</v>
-      </c>
-      <c r="E76" t="n">
-        <v>21636478.16350148</v>
-      </c>
-      <c r="F76" t="n">
-        <v>23524891.53765598</v>
-      </c>
-      <c r="G76" t="n">
-        <v>22730784.65415478</v>
-      </c>
-      <c r="H76" t="n">
-        <v>28726219.54197492</v>
-      </c>
-      <c r="I76" t="n">
-        <v>25718626.78370349</v>
-      </c>
-      <c r="J76" t="n">
-        <v>21041799.30029687</v>
-      </c>
-      <c r="K76" t="n">
-        <v>20389250.81422817</v>
-      </c>
-      <c r="L76" t="n">
-        <v>20916465.6810281</v>
-      </c>
-      <c r="M76" t="n">
-        <v>20618047.60126837</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>15385897.681293</v>
-      </c>
-      <c r="C77" t="n">
-        <v>16593493.6320437</v>
-      </c>
-      <c r="D77" t="n">
-        <v>15985245.42264647</v>
-      </c>
-      <c r="E77" t="n">
-        <v>16498699.37465373</v>
-      </c>
-      <c r="F77" t="n">
-        <v>15797952.43505046</v>
-      </c>
-      <c r="G77" t="n">
-        <v>18871559.82467478</v>
-      </c>
-      <c r="H77" t="n">
-        <v>17986474.7159125</v>
-      </c>
-      <c r="I77" t="n">
-        <v>16794558.33337926</v>
-      </c>
-      <c r="J77" t="n">
-        <v>16582493.00611709</v>
-      </c>
-      <c r="K77" t="n">
-        <v>20042515.3046392</v>
-      </c>
-      <c r="L77" t="n">
-        <v>19598820.13466438</v>
-      </c>
-      <c r="M77" t="n">
-        <v>20618394.04374025</v>
+        <v>3077072.099151809</v>
       </c>
     </row>
   </sheetData>
